--- a/testdata/Data_Result.xlsx
+++ b/testdata/Data_Result.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1900" yWindow="1380" windowWidth="12270" windowHeight="9420" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="340" yWindow="500" windowWidth="12270" windowHeight="9420" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data_Result" sheetId="1" state="visible" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="新細明體"/>
       <family val="2"/>
@@ -32,6 +32,13 @@
       <family val="3"/>
       <sz val="9"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Microsoft JhengHei"/>
+      <charset val="136"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -54,7 +61,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
@@ -62,6 +69,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -408,15 +416,18 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <cols>
+    <col width="12.296875" bestFit="1" customWidth="1" min="3" max="3"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="15" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
           <t>功能</t>
@@ -427,7 +438,12 @@
           <t>序號</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>預期</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
         <is>
           <t>結果</t>
         </is>
@@ -442,17 +458,22 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="inlineStr">
+      <c r="A3" s="4" t="inlineStr">
         <is>
           <t>FUNCTION</t>
         </is>
       </c>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="B3" s="4" t="inlineStr">
         <is>
           <t>Num</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>EXPECTED</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>RESULT</t>
         </is>
@@ -465,7 +486,12 @@
       <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="C4" t="b">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="D4" t="b">
         <v>1</v>
       </c>
     </row>
@@ -476,7 +502,12 @@
       <c r="B5" t="n">
         <v>2</v>
       </c>
-      <c r="C5" t="b">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -487,11 +518,17 @@
       <c r="B6" t="n">
         <v>1</v>
       </c>
-      <c r="C6" t="b">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="D6" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/testdata/Data_Result.xlsx
+++ b/testdata/Data_Result.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
@@ -484,7 +484,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -497,33 +497,17 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="D6" t="b">
         <v>1</v>
       </c>
     </row>

--- a/testdata/Data_Result.xlsx
+++ b/testdata/Data_Result.xlsx
@@ -484,7 +484,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -500,7 +500,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>

--- a/testdata/Data_Result.xlsx
+++ b/testdata/Data_Result.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
@@ -497,17 +497,81 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
         <v>2</v>
       </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
       <c r="C5" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
       <c r="D5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="D9" t="b">
         <v>1</v>
       </c>
     </row>

--- a/testdata/Data_Result.xlsx
+++ b/testdata/Data_Result.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
@@ -516,63 +516,31 @@
         <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" t="n">
         <v>2</v>
       </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="D7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>2</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="D8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>2</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/Data_Result.xlsx
+++ b/testdata/Data_Result.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
@@ -516,15 +516,15 @@
         <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -532,15 +532,111 @@
         <v>1</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>2</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/Data_Result.xlsx
+++ b/testdata/Data_Result.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
@@ -529,10 +529,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -548,7 +548,7 @@
         <v>2</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
         <v>2</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -572,70 +572,6 @@
         </is>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>2</v>
-      </c>
-      <c r="B10" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="D10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>2</v>
-      </c>
-      <c r="B11" t="n">
-        <v>2</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="D11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>2</v>
-      </c>
-      <c r="B12" t="n">
-        <v>2</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="D12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>2</v>
-      </c>
-      <c r="B13" t="n">
-        <v>2</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="D13" t="b">
         <v>1</v>
       </c>
     </row>

--- a/testdata/Data_Result.xlsx
+++ b/testdata/Data_Result.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
@@ -513,10 +513,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -532,7 +532,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -540,38 +540,6 @@
         </is>
       </c>
       <c r="D7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>2</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="D8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>2</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="D9" t="b">
         <v>1</v>
       </c>
     </row>
